--- a/DataTables/Datas/__tables__.xlsx
+++ b/DataTables/Datas/__tables__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\WorkSpace\UELuban\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C807DA31-C68F-4E36-B32B-957FDD9AD875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9E7503-4933-467B-A2C9-FAF9B2521179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="930" windowWidth="22870" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>##var</t>
   </si>
@@ -101,13 +101,25 @@
   </si>
   <si>
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
+  </si>
+  <si>
+    <t>Global.TbPreLoadRes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreLoadRes.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tPreLoadRes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +137,14 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -160,11 +180,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -443,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -553,6 +576,20 @@
         <v>26</v>
       </c>
     </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
